--- a/MotorMiniProject1/Budget.xlsx
+++ b/MotorMiniProject1/Budget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkans\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D69F118-4FF4-409E-B498-5421D1D2D798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23695138-D29F-4CE5-A3CB-29AEA69B2B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8BB2A8C5-712E-4190-8588-7F5E0E3A700D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{8BB2A8C5-712E-4190-8588-7F5E0E3A700D}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Budget" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="78">
   <si>
     <t>Project Lab 1</t>
   </si>
@@ -212,9 +212,6 @@
     <t>Note/Website</t>
   </si>
   <si>
-    <t>Purchase Date</t>
-  </si>
-  <si>
     <t>Rover</t>
   </si>
   <si>
@@ -261,13 +258,26 @@
   </si>
   <si>
     <t>Maker Space</t>
+  </si>
+  <si>
+    <t>Infrared Sensors (10)</t>
+  </si>
+  <si>
+    <t>Phototransistors (10)</t>
+  </si>
+  <si>
+    <t>Servo Motors (5)</t>
+  </si>
+  <si>
+    <t>Actuator</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
@@ -326,7 +336,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -452,25 +462,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -499,7 +496,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -511,6 +507,9 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -545,6 +544,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -865,7 +870,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection sqref="A1:K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -879,21 +884,21 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="20">
-        <v>44573</v>
+        <v>44601</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -918,7 +923,7 @@
         <v>4</v>
       </c>
       <c r="I3" s="21">
-        <v>44587</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -953,27 +958,27 @@
       </c>
       <c r="C5" s="4">
         <f>'Labor Hours'!J2</f>
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="D5" s="16">
         <f>B5*C5</f>
-        <v>1080</v>
+        <v>495</v>
       </c>
       <c r="E5" s="6">
         <v>15</v>
       </c>
       <c r="F5" s="4">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="G5" s="8">
         <f>E5*F5</f>
-        <v>1050</v>
+        <v>2400</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I5" s="22">
-        <v>44601</v>
+        <v>44682</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -985,47 +990,47 @@
       </c>
       <c r="C6" s="4">
         <f>'Labor Hours'!J3</f>
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="D6" s="16">
         <f>B6*C6</f>
-        <v>1065</v>
+        <v>495</v>
       </c>
       <c r="E6" s="6">
         <v>15</v>
       </c>
       <c r="F6" s="4">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="G6" s="8">
         <f>E6*F6</f>
-        <v>1050</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" s="6">
         <v>15</v>
       </c>
       <c r="C7" s="4">
         <f>'Labor Hours'!J4</f>
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="D7" s="16">
         <f>B7*C7</f>
-        <v>990</v>
+        <v>450</v>
       </c>
       <c r="E7" s="6">
         <v>15</v>
       </c>
       <c r="F7" s="4">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="G7" s="8">
         <f>E7*F7</f>
-        <v>1050</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1046,7 +1051,7 @@
       </c>
       <c r="D9" s="16">
         <f>SUM(D5:D7)</f>
-        <v>3135</v>
+        <v>1440</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="4" t="s">
@@ -1054,7 +1059,7 @@
       </c>
       <c r="G9" s="8">
         <f>SUM(G5:G7)</f>
-        <v>3150</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1069,7 +1074,7 @@
       </c>
       <c r="D10" s="17">
         <f>D9</f>
-        <v>3135</v>
+        <v>1440</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>16</v>
@@ -1079,7 +1084,7 @@
       </c>
       <c r="G10" s="10">
         <f>G9</f>
-        <v>3150</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1090,18 +1095,18 @@
       <c r="C11" s="4"/>
       <c r="D11" s="18">
         <f>SUM(D9:D10)</f>
-        <v>6270</v>
+        <v>2880</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="4"/>
       <c r="G11" s="11">
         <f>SUM(G9:G10)</f>
-        <v>6300</v>
-      </c>
-      <c r="I11" s="38" t="s">
+        <v>14400</v>
+      </c>
+      <c r="I11" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="38"/>
+      <c r="J11" s="40"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
@@ -1110,10 +1115,10 @@
       <c r="E12" s="6"/>
       <c r="F12" s="4"/>
       <c r="G12" s="7"/>
-      <c r="I12" s="39" t="s">
+      <c r="I12" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="40"/>
+      <c r="J12" s="42"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -1125,10 +1130,10 @@
       <c r="E13" s="6"/>
       <c r="F13" s="4"/>
       <c r="G13" s="7"/>
-      <c r="I13" s="41" t="s">
+      <c r="I13" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="42"/>
+      <c r="J13" s="44"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1149,16 +1154,16 @@
         <v>40</v>
       </c>
       <c r="F14" s="4">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G14" s="8">
         <f>E14*F14</f>
-        <v>200</v>
-      </c>
-      <c r="I14" s="43" t="s">
+        <v>600</v>
+      </c>
+      <c r="I14" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="44"/>
+      <c r="J14" s="46"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1179,11 +1184,11 @@
         <v>15</v>
       </c>
       <c r="F15" s="4">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G15" s="8">
         <f>E15*F15</f>
-        <v>75</v>
+        <v>225</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1207,11 +1212,11 @@
         <v>200</v>
       </c>
       <c r="F16" s="4">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G16" s="8">
         <f>E16*F16</f>
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1228,7 +1233,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="11">
         <f>SUM(G14:G16)</f>
-        <v>1275</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1246,8 +1251,8 @@
       <c r="B19" s="6"/>
       <c r="C19" s="4"/>
       <c r="D19" s="16">
-        <f>'Material Costs'!H2</f>
-        <v>288.34000000000003</v>
+        <f>'Material Costs'!G2</f>
+        <v>354.38000000000005</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="4"/>
@@ -1275,7 +1280,7 @@
       <c r="C21" s="4"/>
       <c r="D21" s="18">
         <f>D19</f>
-        <v>288.34000000000003</v>
+        <v>354.38000000000005</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="4"/>
@@ -1310,14 +1315,14 @@
         <v>29</v>
       </c>
       <c r="G23" s="7"/>
-      <c r="H23" s="37" t="s">
+      <c r="H23" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37" t="s">
+      <c r="I23" s="39"/>
+      <c r="J23" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="K23" s="37"/>
+      <c r="K23" s="39"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -1332,10 +1337,9 @@
       </c>
       <c r="D24" s="17">
         <f>B24*C24*H24</f>
-        <v>6.2998599999999998</v>
-      </c>
-      <c r="E24" s="12">
-        <f>449.99</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="34">
         <v>449.99</v>
       </c>
       <c r="F24" s="13">
@@ -1343,16 +1347,16 @@
       </c>
       <c r="G24" s="10">
         <f>E24*F24*J24</f>
-        <v>8.9998000000000005</v>
-      </c>
-      <c r="H24" s="37">
-        <v>7</v>
-      </c>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37">
-        <v>10</v>
-      </c>
-      <c r="K24" s="37"/>
+        <v>26.999400000000001</v>
+      </c>
+      <c r="H24" s="39">
+        <v>0</v>
+      </c>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39">
+        <v>30</v>
+      </c>
+      <c r="K24" s="39"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -1367,10 +1371,9 @@
       </c>
       <c r="D25" s="17">
         <f>B25*C25*H24</f>
-        <v>5.8100000000000005</v>
-      </c>
-      <c r="E25" s="12">
-        <f>415</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="34">
         <v>415</v>
       </c>
       <c r="F25" s="13">
@@ -1378,29 +1381,38 @@
       </c>
       <c r="G25" s="10">
         <f>E25*F25*J24</f>
-        <v>8.3000000000000007</v>
+        <v>24.900000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26" s="12">
         <f>99.99</f>
         <v>99.99</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C26" s="32">
         <v>2E-3</v>
       </c>
       <c r="D26" s="10">
         <f>B26*C26*H24</f>
-        <v>1.3998599999999999</v>
-      </c>
-      <c r="G26" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="35">
+        <v>99</v>
+      </c>
+      <c r="F26" s="32">
+        <v>2E-3</v>
+      </c>
+      <c r="G26" s="7">
+        <f>E26*F26*J24</f>
+        <v>5.94</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27" s="12">
         <f>99.99</f>
@@ -1409,13 +1421,21 @@
       <c r="C27" s="13">
         <v>2E-3</v>
       </c>
-      <c r="D27" s="31">
+      <c r="D27" s="30">
         <f>B27*C27*H24</f>
-        <v>1.3998599999999999</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="32"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="33">
+        <f>99</f>
+        <v>99</v>
+      </c>
+      <c r="F27" s="13">
+        <v>2E-3</v>
+      </c>
+      <c r="G27" s="31">
+        <f>E27*F27*J24</f>
+        <v>5.94</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -1425,13 +1445,13 @@
       <c r="C28" s="4"/>
       <c r="D28" s="18">
         <f>SUM(D24:D27)</f>
-        <v>14.909580000000002</v>
+        <v>0</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="4"/>
       <c r="G28" s="11">
         <f>SUM(G24:G25)</f>
-        <v>17.299800000000001</v>
+        <v>51.8994</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1450,13 +1470,13 @@
       <c r="C30" s="4"/>
       <c r="D30" s="19">
         <f>SUM(D11,D17,D21,D28)</f>
-        <v>6573.2495799999997</v>
+        <v>3234.38</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="4"/>
       <c r="G30" s="5">
         <f>SUM(G11,G17,G21,G28)</f>
-        <v>8135.5097999999998</v>
+        <v>18820.109399999998</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1465,19 +1485,19 @@
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="9">
-        <v>0.45</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D31" s="17">
         <f>D30*C31</f>
-        <v>2957.9623109999998</v>
+        <v>1778.9090000000001</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="9">
-        <v>0.45</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G31" s="10">
         <f>G30*F31</f>
-        <v>3660.9794099999999</v>
+        <v>10351.060169999999</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1490,7 +1510,7 @@
       </c>
       <c r="D32" s="19">
         <f>SUM(D30:D31)</f>
-        <v>9531.211890999999</v>
+        <v>5013.2890000000007</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="15" t="s">
@@ -1498,7 +1518,7 @@
       </c>
       <c r="G32" s="5">
         <f>SUM(G30:G31)</f>
-        <v>11796.48921</v>
+        <v>29171.169569999998</v>
       </c>
     </row>
     <row r="34" spans="7:7" x14ac:dyDescent="0.3">
@@ -1526,8 +1546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7020275-B2DA-4DA8-8538-10FD245A3C38}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1557,23 +1577,23 @@
       <c r="G1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="45"/>
+      <c r="J1" s="47"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="20">
-        <v>44573</v>
+        <v>44603</v>
       </c>
       <c r="B2" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -1584,20 +1604,20 @@
       <c r="G2" s="2">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="25" t="s">
         <v>10</v>
       </c>
       <c r="J2" s="23">
         <f>SUM(B2:B30)</f>
-        <v>72</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="20">
-        <v>44574</v>
+        <v>44604</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -1617,20 +1637,20 @@
       <c r="G3" s="2">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="25" t="s">
         <v>43</v>
       </c>
       <c r="J3" s="23">
         <f>SUM(C2:C30)</f>
-        <v>71</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="20">
-        <v>44575</v>
+        <v>44605</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -1650,20 +1670,20 @@
       <c r="G4" s="2">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="H4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="25" t="s">
         <v>44</v>
       </c>
       <c r="J4" s="23">
         <f>SUM(D2:D30)</f>
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="20">
-        <v>44576</v>
+        <v>44606</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -1683,8 +1703,8 @@
       <c r="G5" s="24">
         <v>0</v>
       </c>
-      <c r="H5" s="26" t="s">
-        <v>50</v>
+      <c r="H5" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="I5" s="25" t="s">
         <v>18</v>
@@ -1696,16 +1716,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="20">
-        <v>44577</v>
+        <v>44607</v>
       </c>
       <c r="B6" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -1716,10 +1736,10 @@
       <c r="G6" s="2">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="H6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="25" t="s">
         <v>45</v>
       </c>
       <c r="J6" s="23">
@@ -1729,7 +1749,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
-        <v>44578</v>
+        <v>44608</v>
       </c>
       <c r="B7" s="2">
         <v>3</v>
@@ -1749,10 +1769,10 @@
       <c r="G7" s="2">
         <v>0</v>
       </c>
-      <c r="H7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="H7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="25" t="s">
         <v>20</v>
       </c>
       <c r="J7" s="23">
@@ -1762,7 +1782,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
-        <v>44579</v>
+        <v>44609</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -1782,22 +1802,22 @@
       <c r="G8" s="2">
         <v>0</v>
       </c>
-      <c r="H8" t="s">
-        <v>53</v>
+      <c r="H8" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="20">
-        <v>44580</v>
+        <v>44610</v>
       </c>
       <c r="B9" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C9" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -1808,22 +1828,22 @@
       <c r="G9" s="2">
         <v>0</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
+      <c r="H9" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
-        <v>44581</v>
+        <v>44611</v>
       </c>
       <c r="B10" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -1834,22 +1854,22 @@
       <c r="G10" s="2">
         <v>0</v>
       </c>
-      <c r="H10" t="s">
-        <v>48</v>
+      <c r="H10" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="20">
-        <v>44582</v>
+        <v>44612</v>
       </c>
       <c r="B11" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C11" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D11" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -1860,26 +1880,26 @@
       <c r="G11" s="2">
         <v>0</v>
       </c>
-      <c r="H11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="37" t="s">
+      <c r="H11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="37"/>
+      <c r="J11" s="39"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
-        <v>44583</v>
+        <v>44613</v>
       </c>
       <c r="B12" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -1890,17 +1910,17 @@
       <c r="G12" s="2">
         <v>0</v>
       </c>
-      <c r="H12" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" s="45" t="s">
+      <c r="H12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="45"/>
+      <c r="J12" s="47"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
-        <v>44584</v>
+        <v>44614</v>
       </c>
       <c r="B13" s="2">
         <v>3</v>
@@ -1920,22 +1940,22 @@
       <c r="G13" s="2">
         <v>0</v>
       </c>
-      <c r="H13" t="s">
-        <v>51</v>
+      <c r="H13" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
-        <v>44585</v>
+        <v>44615</v>
       </c>
       <c r="B14" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C14" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -1946,22 +1966,22 @@
       <c r="G14" s="2">
         <v>0</v>
       </c>
-      <c r="H14" t="s">
-        <v>52</v>
+      <c r="H14" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="20">
-        <v>44586</v>
+        <v>44616</v>
       </c>
       <c r="B15" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C15" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -1972,22 +1992,22 @@
       <c r="G15" s="2">
         <v>0</v>
       </c>
-      <c r="H15" t="s">
-        <v>53</v>
+      <c r="H15" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
-        <v>44587</v>
+        <v>44617</v>
       </c>
       <c r="B16" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -1998,13 +2018,13 @@
       <c r="G16" s="2">
         <v>0</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
+      <c r="H16" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
-        <v>44588</v>
+        <v>44618</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -2013,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -2024,19 +2044,19 @@
       <c r="G17" s="2">
         <v>0</v>
       </c>
-      <c r="H17" t="s">
-        <v>48</v>
+      <c r="H17" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="20">
-        <v>44589</v>
+        <v>44619</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
@@ -2050,22 +2070,22 @@
       <c r="G18" s="2">
         <v>0</v>
       </c>
-      <c r="H18" t="s">
-        <v>49</v>
+      <c r="H18" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
-        <v>44590</v>
+        <v>44620</v>
       </c>
       <c r="B19" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C19" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D19" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -2076,22 +2096,22 @@
       <c r="G19" s="2">
         <v>0</v>
       </c>
-      <c r="H19" s="14" t="s">
-        <v>50</v>
+      <c r="H19" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
-        <v>44591</v>
+        <v>44621</v>
       </c>
       <c r="B20" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C20" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D20" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
@@ -2102,22 +2122,22 @@
       <c r="G20" s="2">
         <v>0</v>
       </c>
-      <c r="H20" t="s">
-        <v>51</v>
+      <c r="H20" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="20">
-        <v>44592</v>
+        <v>44622</v>
       </c>
       <c r="B21" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C21" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D21" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -2128,22 +2148,22 @@
       <c r="G21" s="2">
         <v>0</v>
       </c>
-      <c r="H21" t="s">
-        <v>52</v>
+      <c r="H21" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="20">
-        <v>44593</v>
+        <v>44623</v>
       </c>
       <c r="B22" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D22" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
@@ -2154,22 +2174,22 @@
       <c r="G22" s="2">
         <v>0</v>
       </c>
-      <c r="H22" t="s">
-        <v>53</v>
+      <c r="H22" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="20">
-        <v>44594</v>
+        <v>44624</v>
       </c>
       <c r="B23" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C23" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D23" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -2180,13 +2200,13 @@
       <c r="G23" s="2">
         <v>0</v>
       </c>
-      <c r="H23" t="s">
-        <v>47</v>
+      <c r="H23" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="20">
-        <v>44595</v>
+        <v>44625</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
@@ -2206,22 +2226,22 @@
       <c r="G24" s="2">
         <v>0</v>
       </c>
-      <c r="H24" t="s">
-        <v>48</v>
+      <c r="H24" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="20">
-        <v>44596</v>
+        <v>44626</v>
       </c>
       <c r="B25" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C25" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D25" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
@@ -2232,19 +2252,19 @@
       <c r="G25" s="2">
         <v>0</v>
       </c>
-      <c r="H25" t="s">
-        <v>49</v>
+      <c r="H25" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="20">
-        <v>44597</v>
+        <v>44627</v>
       </c>
       <c r="B26" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C26" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
@@ -2258,22 +2278,22 @@
       <c r="G26" s="2">
         <v>0</v>
       </c>
-      <c r="H26" s="14" t="s">
-        <v>50</v>
+      <c r="H26" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
-        <v>44598</v>
+        <v>44628</v>
       </c>
       <c r="B27" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C27" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D27" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E27" s="2">
         <v>0</v>
@@ -2284,22 +2304,22 @@
       <c r="G27" s="2">
         <v>0</v>
       </c>
-      <c r="H27" t="s">
-        <v>51</v>
+      <c r="H27" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="20">
-        <v>44599</v>
+        <v>44629</v>
       </c>
       <c r="B28" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C28" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D28" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E28" s="2">
         <v>0</v>
@@ -2310,22 +2330,22 @@
       <c r="G28" s="2">
         <v>0</v>
       </c>
-      <c r="H28" t="s">
-        <v>52</v>
+      <c r="H28" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="20">
-        <v>44600</v>
+        <v>44630</v>
       </c>
       <c r="B29" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C29" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D29" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E29" s="2">
         <v>0</v>
@@ -2336,22 +2356,22 @@
       <c r="G29" s="2">
         <v>0</v>
       </c>
-      <c r="H29" t="s">
-        <v>53</v>
+      <c r="H29" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="20">
-        <v>44601</v>
+        <v>44631</v>
       </c>
       <c r="B30" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C30" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D30" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
@@ -2362,8 +2382,8 @@
       <c r="G30" s="2">
         <v>0</v>
       </c>
-      <c r="H30" t="s">
-        <v>47</v>
+      <c r="H30" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2379,49 +2399,46 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9B8CE2-A2E2-43AC-883D-24385E4073B8}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
     <col min="2" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="8" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="29">
+      <c r="B2" s="28">
         <f>49.95</f>
         <v>49.95</v>
       </c>
@@ -2429,42 +2446,39 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="29">
-        <f>B2*C2</f>
+        <v>66</v>
+      </c>
+      <c r="E2" s="28">
         <v>49.95</v>
       </c>
-      <c r="H2" s="30">
-        <f>SUM(F2:F21)</f>
-        <v>288.34000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G2" s="29">
+        <f>SUM(E2:E21)</f>
+        <v>354.38000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="29">
+        <v>59</v>
+      </c>
+      <c r="B3" s="28">
         <v>4.67</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="29">
-        <f t="shared" ref="F3:F21" si="0">B3*C3</f>
+        <v>67</v>
+      </c>
+      <c r="E3" s="28">
+        <f t="shared" ref="E3:E21" si="0">B3*C3</f>
         <v>4.67</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="29">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28">
         <f>149</f>
         <v>149</v>
       </c>
@@ -2472,19 +2486,18 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="29">
+        <v>67</v>
+      </c>
+      <c r="E4" s="28">
         <f t="shared" si="0"/>
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="29">
+        <v>60</v>
+      </c>
+      <c r="B5" s="28">
         <f>13.3</f>
         <v>13.3</v>
       </c>
@@ -2492,17 +2505,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="29">
+      <c r="E5" s="28">
         <f t="shared" si="0"/>
         <v>13.3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="29">
+        <v>62</v>
+      </c>
+      <c r="B6" s="28">
         <f>3.95</f>
         <v>3.95</v>
       </c>
@@ -2510,19 +2522,18 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="29">
+        <v>64</v>
+      </c>
+      <c r="E6" s="28">
         <f t="shared" si="0"/>
         <v>3.95</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="29">
+        <v>63</v>
+      </c>
+      <c r="B7" s="28">
         <f>13.99</f>
         <v>13.99</v>
       </c>
@@ -2530,186 +2541,203 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="29">
+        <v>65</v>
+      </c>
+      <c r="E7" s="28">
         <f t="shared" si="0"/>
         <v>13.99</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="G7" s="26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="29">
+        <v>71</v>
+      </c>
+      <c r="B8" s="28">
         <v>38.99</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="29">
+        <v>65</v>
+      </c>
+      <c r="E8" s="28">
         <f t="shared" si="0"/>
         <v>38.99</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="G8" s="27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="29">
-        <v>14.49</v>
+        <v>72</v>
+      </c>
+      <c r="B9" s="28">
+        <v>30</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="28">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="28">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="28">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="28">
+        <v>3.74</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="28">
+        <f t="shared" si="0"/>
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="29">
+      <c r="B12" s="28">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="28">
         <f t="shared" si="0"/>
-        <v>14.49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="29">
+        <v>8.7899999999999991</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="28">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="29"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="29">
+      <c r="E14" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="29"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="29">
+      <c r="E15" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="29"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="29">
+      <c r="E16" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="29"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="29">
+      <c r="E17" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="29"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="29">
+      <c r="E18" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="29"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="29">
+      <c r="E19" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="29"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="29">
+      <c r="E20" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="29"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="29">
+      <c r="E21" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
